--- a/CSISProject-GrpX/Excel/Products.xlsx
+++ b/CSISProject-GrpX/Excel/Products.xlsx
@@ -1,43 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Workspace\GitHub\csis3280\CSISProject-GrpX\CSV FIles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Workspace\GitHub\csis3280\CSISProject-GrpX\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
-  <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>ProductName</t>
-  </si>
-  <si>
-    <t>ProductCategory</t>
-  </si>
-  <si>
-    <t>ProductReferenceNo</t>
-  </si>
-  <si>
-    <t>ProductDimensions</t>
-  </si>
-  <si>
-    <t>ProductPrice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="101">
   <si>
     <t>AisleID</t>
   </si>
@@ -319,15 +301,33 @@
   </si>
   <si>
     <t>60x40x49</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>referenceNo</t>
+  </si>
+  <si>
+    <t>dimensions</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -807,7 +807,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1162,725 +1162,854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
         <v>0.5</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>41</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
         <v>27.41</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G30" ca="1" si="0">RANDBETWEEN(1,50)</f>
+        <v>32</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>1.92</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1">
         <v>27.78</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>40.68</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>44.91</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>34.75</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1">
         <v>4.09</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11" s="1">
         <v>47.06</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H11">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1">
         <v>29.85</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1">
         <v>39.82</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1">
         <v>10.48</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H14">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1">
         <v>9.35</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1">
         <v>47.68</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="H16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
         <v>20.28</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F19" s="1">
         <v>26.32</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H19">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
         <v>29.33</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1">
         <v>4.5599999999999996</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F22" s="1">
         <v>40.520000000000003</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="H22">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1">
         <v>37.450000000000003</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H23">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F24" s="1">
         <v>43.44</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1">
         <v>17.27</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1">
         <v>48.09</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H26">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1">
         <v>44.37</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H27">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F28" s="1">
         <v>35.46</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1">
         <v>28.47</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H29">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F30" s="1">
         <v>40.1</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1">
         <v>44.82</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
+        <f ca="1">RANDBETWEEN(1,50)</f>
+        <v>27</v>
+      </c>
+      <c r="H31">
         <v>11</v>
       </c>
     </row>
